--- a/data_loader/kna_database.xlsx
+++ b/data_loader/kna_database.xlsx
@@ -10,13 +10,15 @@
     <sheet state="visible" name="Sheet8" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Rollen" sheetId="6" r:id="rId9"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">Bestand!$A$1:$P$937</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4886" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4882" uniqueCount="1208">
   <si>
     <t>type_media</t>
   </si>
@@ -4326,6 +4328,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:P937" displayName="Bestand" name="Bestand" id="4">
+  <autoFilter ref="$A$1:$P$937"/>
   <tableColumns count="16">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -10782,14 +10785,10 @@
         <v>1</v>
       </c>
       <c r="D162" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="E162" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="F162" s="46" t="s">
-        <v>160</v>
-      </c>
+      <c r="E162" s="46"/>
+      <c r="F162" s="46"/>
       <c r="G162" s="47"/>
       <c r="H162" s="47"/>
       <c r="I162" s="47"/>
@@ -10817,12 +10816,8 @@
       <c r="E163" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="F163" s="56" t="s">
-        <v>157</v>
-      </c>
-      <c r="G163" s="51" t="s">
-        <v>160</v>
-      </c>
+      <c r="F163" s="58"/>
+      <c r="G163" s="51"/>
       <c r="H163" s="52"/>
       <c r="I163" s="52"/>
       <c r="J163" s="52"/>
@@ -10952,7 +10947,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="46" t="s">
-        <v>278</v>
+        <v>164</v>
       </c>
       <c r="E168" s="47"/>
       <c r="F168" s="47"/>
@@ -11344,7 +11339,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="51" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E183" s="52"/>
       <c r="F183" s="52"/>

--- a/data_loader/kna_database.xlsx
+++ b/data_loader/kna_database.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5092" uniqueCount="1252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5113" uniqueCount="1252">
   <si>
     <t>type_media</t>
   </si>
@@ -3693,6 +3693,15 @@
     <t>Toneelmeester</t>
   </si>
   <si>
+    <t>Vader</t>
+  </si>
+  <si>
+    <t>Heer Six</t>
+  </si>
+  <si>
+    <t>Hansje</t>
+  </si>
+  <si>
     <t>Gerard Braspot</t>
   </si>
   <si>
@@ -3766,15 +3775,6 @@
   </si>
   <si>
     <t>Elma</t>
-  </si>
-  <si>
-    <t>Heer Six</t>
-  </si>
-  <si>
-    <t>Hansje</t>
-  </si>
-  <si>
-    <t>Vader</t>
   </si>
 </sst>
 </file>
@@ -4280,10 +4280,10 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -4461,7 +4461,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D128" displayName="rol" name="rol" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D138" displayName="rol" name="rol" id="5">
   <tableColumns count="4">
     <tableColumn name="ref_uitvoering" id="1"/>
     <tableColumn name="id_lid" id="2"/>
@@ -50659,68 +50659,68 @@
     </row>
     <row r="2">
       <c r="A2" s="39" t="s">
-        <v>271</v>
+        <v>1134</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>281</v>
+        <v>419</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D2" s="14"/>
+        <v>49</v>
+      </c>
+      <c r="D2" s="22"/>
     </row>
     <row r="3">
       <c r="A3" s="44" t="s">
-        <v>271</v>
+        <v>1134</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D3" s="20"/>
+        <v>279</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4">
       <c r="A4" s="39" t="s">
-        <v>271</v>
+        <v>1134</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>278</v>
+        <v>164</v>
       </c>
       <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5">
       <c r="A5" s="44" t="s">
-        <v>271</v>
+        <v>1134</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6">
       <c r="A6" s="39" t="s">
-        <v>271</v>
+        <v>1134</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D6" s="14"/>
+        <v>1156</v>
+      </c>
+      <c r="D6" s="22"/>
     </row>
     <row r="7">
       <c r="A7" s="44" t="s">
         <v>271</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" s="19"/>
+        <v>281</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>1156</v>
+      </c>
       <c r="D7" s="20"/>
     </row>
     <row r="8">
@@ -50728,10 +50728,10 @@
         <v>271</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>164</v>
+        <v>275</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D8" s="14"/>
     </row>
@@ -50740,254 +50740,250 @@
         <v>271</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="64"/>
+        <v>278</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10">
       <c r="A10" s="39" t="s">
-        <v>405</v>
+        <v>271</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>1161</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11">
       <c r="A11" s="44" t="s">
-        <v>405</v>
+        <v>271</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>1162</v>
+        <v>276</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>1164</v>
-      </c>
+        <v>1158</v>
+      </c>
+      <c r="D11" s="20"/>
     </row>
     <row r="12">
       <c r="A12" s="39" t="s">
-        <v>405</v>
+        <v>271</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>892</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>1166</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13">
       <c r="A13" s="44" t="s">
-        <v>405</v>
+        <v>271</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>889</v>
+        <v>164</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D13" s="21"/>
+        <v>1159</v>
+      </c>
+      <c r="D13" s="20"/>
     </row>
     <row r="14">
       <c r="A14" s="39" t="s">
-        <v>567</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>160</v>
+        <v>271</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>157</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="65"/>
+      <c r="D14" s="64"/>
     </row>
     <row r="15">
       <c r="A15" s="44" t="s">
-        <v>567</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="64"/>
+        <v>405</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>1161</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="39" t="s">
-        <v>567</v>
-      </c>
-      <c r="B16" s="42" t="s">
-        <v>247</v>
+        <v>405</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>1162</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D16" s="14"/>
+        <v>1163</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>1164</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="44" t="s">
-        <v>567</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="64"/>
+        <v>405</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>892</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>1166</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="39" t="s">
-        <v>567</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>576</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="65"/>
+        <v>405</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>889</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D18" s="22"/>
     </row>
     <row r="19">
       <c r="A19" s="44" t="s">
         <v>567</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>257</v>
+        <v>160</v>
       </c>
       <c r="C19" s="17"/>
-      <c r="D19" s="64"/>
+      <c r="D19" s="65"/>
     </row>
     <row r="20">
       <c r="A20" s="39" t="s">
         <v>567</v>
       </c>
       <c r="B20" s="42" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="C20" s="11"/>
-      <c r="D20" s="65"/>
+      <c r="D20" s="64"/>
     </row>
     <row r="21">
       <c r="A21" s="44" t="s">
         <v>567</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="64"/>
+        <v>247</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D21" s="20"/>
     </row>
     <row r="22">
       <c r="A22" s="39" t="s">
         <v>567</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>218</v>
+        <v>162</v>
       </c>
       <c r="C22" s="11"/>
-      <c r="D22" s="65"/>
+      <c r="D22" s="64"/>
     </row>
     <row r="23">
       <c r="A23" s="44" t="s">
         <v>567</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>165</v>
+        <v>576</v>
       </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="64"/>
+      <c r="D23" s="65"/>
     </row>
     <row r="24">
       <c r="A24" s="39" t="s">
         <v>567</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>417</v>
+        <v>257</v>
       </c>
       <c r="C24" s="11"/>
-      <c r="D24" s="65"/>
+      <c r="D24" s="64"/>
     </row>
     <row r="25">
       <c r="A25" s="44" t="s">
         <v>567</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>456</v>
+        <v>158</v>
       </c>
       <c r="C25" s="17"/>
-      <c r="D25" s="64"/>
+      <c r="D25" s="65"/>
     </row>
     <row r="26">
       <c r="A26" s="39" t="s">
         <v>567</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D26" s="14"/>
+        <v>164</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="64"/>
     </row>
     <row r="27">
       <c r="A27" s="44" t="s">
-        <v>1170</v>
+        <v>567</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D27" s="20"/>
+        <v>218</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="65"/>
     </row>
     <row r="28">
       <c r="A28" s="39" t="s">
-        <v>1170</v>
+        <v>567</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D28" s="14"/>
+        <v>165</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="64"/>
     </row>
     <row r="29">
       <c r="A29" s="44" t="s">
-        <v>1170</v>
+        <v>567</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D29" s="20"/>
+        <v>417</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="65"/>
     </row>
     <row r="30">
       <c r="A30" s="39" t="s">
-        <v>1170</v>
+        <v>567</v>
       </c>
       <c r="B30" s="42" t="s">
-        <v>1174</v>
+        <v>456</v>
       </c>
       <c r="C30" s="11"/>
-      <c r="D30" s="65"/>
+      <c r="D30" s="64"/>
     </row>
     <row r="31">
       <c r="A31" s="44" t="s">
-        <v>1170</v>
+        <v>567</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>419</v>
+        <v>1169</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>1175</v>
+        <v>1156</v>
       </c>
       <c r="D31" s="20"/>
     </row>
@@ -50996,10 +50992,10 @@
         <v>1170</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>1176</v>
+        <v>275</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="D32" s="14"/>
     </row>
@@ -51008,10 +51004,10 @@
         <v>1170</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>1022</v>
+        <v>160</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="D33" s="20"/>
     </row>
@@ -51020,10 +51016,10 @@
         <v>1170</v>
       </c>
       <c r="B34" s="42" t="s">
-        <v>1127</v>
+        <v>1023</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="D34" s="14"/>
     </row>
@@ -51032,22 +51028,20 @@
         <v>1170</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D35" s="20"/>
+        <v>1174</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="65"/>
     </row>
     <row r="36">
       <c r="A36" s="39" t="s">
         <v>1170</v>
       </c>
       <c r="B36" s="42" t="s">
-        <v>1181</v>
+        <v>419</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>1182</v>
+        <v>1175</v>
       </c>
       <c r="D36" s="14"/>
     </row>
@@ -51055,11 +51049,11 @@
       <c r="A37" s="44" t="s">
         <v>1170</v>
       </c>
-      <c r="B37" s="46" t="s">
-        <v>1026</v>
+      <c r="B37" s="47" t="s">
+        <v>1176</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="D37" s="20"/>
     </row>
@@ -51067,31 +51061,35 @@
       <c r="A38" s="39" t="s">
         <v>1170</v>
       </c>
-      <c r="B38" s="41" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="65"/>
+      <c r="B38" s="42" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D38" s="14"/>
     </row>
     <row r="39">
       <c r="A39" s="44" t="s">
         <v>1170</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>279</v>
-      </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="64"/>
+        <v>1127</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D39" s="20"/>
     </row>
     <row r="40">
       <c r="A40" s="39" t="s">
         <v>1170</v>
       </c>
       <c r="B40" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>1156</v>
+        <v>1180</v>
       </c>
       <c r="D40" s="14"/>
     </row>
@@ -51099,11 +51097,11 @@
       <c r="A41" s="44" t="s">
         <v>1170</v>
       </c>
-      <c r="B41" s="46" t="s">
-        <v>279</v>
+      <c r="B41" s="47" t="s">
+        <v>1181</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D41" s="20"/>
     </row>
@@ -51112,82 +51110,78 @@
         <v>1170</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>1174</v>
+        <v>1026</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>1173</v>
+        <v>1183</v>
       </c>
       <c r="D42" s="14"/>
     </row>
     <row r="43">
       <c r="A43" s="44" t="s">
-        <v>883</v>
+        <v>1170</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>889</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D43" s="21"/>
+        <v>1026</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="65"/>
     </row>
     <row r="44">
       <c r="A44" s="39" t="s">
-        <v>883</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D44" s="22"/>
+        <v>1170</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="64"/>
     </row>
     <row r="45">
       <c r="A45" s="44" t="s">
-        <v>883</v>
-      </c>
-      <c r="B45" s="46" t="s">
-        <v>263</v>
+        <v>1170</v>
+      </c>
+      <c r="B45" s="47" t="s">
+        <v>164</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>1187</v>
-      </c>
-      <c r="D45" s="21"/>
+        <v>1156</v>
+      </c>
+      <c r="D45" s="20"/>
     </row>
     <row r="46">
       <c r="A46" s="39" t="s">
-        <v>883</v>
+        <v>1170</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D46" s="22"/>
+        <v>1184</v>
+      </c>
+      <c r="D46" s="14"/>
     </row>
     <row r="47">
       <c r="A47" s="44" t="s">
-        <v>883</v>
+        <v>1170</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>893</v>
+        <v>1174</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>1189</v>
-      </c>
-      <c r="D47" s="21"/>
+        <v>1173</v>
+      </c>
+      <c r="D47" s="20"/>
     </row>
     <row r="48">
       <c r="A48" s="39" t="s">
         <v>883</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>270</v>
+        <v>889</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="D48" s="22"/>
     </row>
@@ -51196,10 +51190,10 @@
         <v>883</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="D49" s="21"/>
     </row>
@@ -51208,10 +51202,10 @@
         <v>883</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>892</v>
+        <v>263</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="D50" s="22"/>
     </row>
@@ -51220,10 +51214,10 @@
         <v>883</v>
       </c>
       <c r="B51" s="46" t="s">
-        <v>900</v>
+        <v>268</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>1156</v>
+        <v>1188</v>
       </c>
       <c r="D51" s="21"/>
     </row>
@@ -51232,10 +51226,10 @@
         <v>883</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>1018</v>
+        <v>893</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="D52" s="22"/>
     </row>
@@ -51244,10 +51238,10 @@
         <v>883</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>899</v>
+        <v>270</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="D53" s="21"/>
     </row>
@@ -51256,10 +51250,10 @@
         <v>883</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="D54" s="22"/>
     </row>
@@ -51268,10 +51262,10 @@
         <v>883</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>576</v>
+        <v>892</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="D55" s="21"/>
     </row>
@@ -51280,88 +51274,82 @@
         <v>883</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>1197</v>
+        <v>1156</v>
       </c>
       <c r="D56" s="22"/>
     </row>
     <row r="57">
       <c r="A57" s="44" t="s">
-        <v>1198</v>
+        <v>883</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>247</v>
+        <v>1018</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="D57" s="21"/>
     </row>
     <row r="58">
       <c r="A58" s="39" t="s">
-        <v>1198</v>
+        <v>883</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>925</v>
+        <v>899</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="D58" s="22"/>
     </row>
     <row r="59">
       <c r="A59" s="44" t="s">
-        <v>1198</v>
+        <v>883</v>
       </c>
       <c r="B59" s="46" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>1202</v>
-      </c>
+        <v>1195</v>
+      </c>
+      <c r="D59" s="21"/>
     </row>
     <row r="60">
       <c r="A60" s="39" t="s">
-        <v>1198</v>
+        <v>883</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>268</v>
+        <v>576</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>1204</v>
-      </c>
+        <v>1196</v>
+      </c>
+      <c r="D60" s="22"/>
     </row>
     <row r="61">
       <c r="A61" s="44" t="s">
-        <v>1198</v>
+        <v>883</v>
       </c>
       <c r="B61" s="46" t="s">
-        <v>270</v>
+        <v>897</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>1206</v>
-      </c>
+        <v>1197</v>
+      </c>
+      <c r="D61" s="21"/>
     </row>
     <row r="62">
       <c r="A62" s="39" t="s">
         <v>1198</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="D62" s="22"/>
     </row>
@@ -51370,10 +51358,10 @@
         <v>1198</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>900</v>
+        <v>925</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>1156</v>
+        <v>1200</v>
       </c>
       <c r="D63" s="21"/>
     </row>
@@ -51382,99 +51370,113 @@
         <v>1198</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D64" s="22"/>
+        <v>1201</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>1202</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="44" t="s">
         <v>1198</v>
       </c>
       <c r="B65" s="46" t="s">
-        <v>1018</v>
+        <v>268</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D65" s="21"/>
+        <v>1203</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="39" t="s">
         <v>1198</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>576</v>
+        <v>270</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D66" s="22"/>
+        <v>1205</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="44" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="B67" s="46" t="s">
-        <v>1209</v>
+        <v>269</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D67" s="20"/>
+        <v>1207</v>
+      </c>
+      <c r="D67" s="21"/>
     </row>
     <row r="68">
       <c r="A68" s="39" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
+        <v>900</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D68" s="22"/>
     </row>
     <row r="69">
       <c r="A69" s="44" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="B69" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="20"/>
+        <v>246</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D69" s="21"/>
     </row>
     <row r="70">
       <c r="A70" s="39" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>162</v>
+        <v>1018</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D70" s="14"/>
+        <v>1193</v>
+      </c>
+      <c r="D70" s="22"/>
     </row>
     <row r="71">
       <c r="A71" s="44" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="B71" s="46" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="20"/>
+        <v>576</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D71" s="21"/>
     </row>
     <row r="72">
       <c r="A72" s="39" t="s">
         <v>1208</v>
       </c>
       <c r="B72" s="41" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="13"/>
+        <v>1209</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>1156</v>
+      </c>
       <c r="D72" s="14"/>
     </row>
     <row r="73">
@@ -51482,7 +51484,7 @@
         <v>1208</v>
       </c>
       <c r="B73" s="46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C73" s="19"/>
       <c r="D73" s="20"/>
@@ -51492,93 +51494,75 @@
         <v>1208</v>
       </c>
       <c r="B74" s="41" t="s">
-        <v>1181</v>
+        <v>164</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="14"/>
     </row>
     <row r="75">
       <c r="A75" s="44" t="s">
-        <v>918</v>
+        <v>1208</v>
       </c>
       <c r="B75" s="46" t="s">
-        <v>592</v>
+        <v>162</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>1201</v>
-      </c>
+        <v>1210</v>
+      </c>
+      <c r="D75" s="20"/>
     </row>
     <row r="76">
       <c r="A76" s="39" t="s">
-        <v>918</v>
+        <v>1208</v>
       </c>
       <c r="B76" s="41" t="s">
-        <v>897</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>1213</v>
-      </c>
+        <v>1127</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="14"/>
     </row>
     <row r="77">
       <c r="A77" s="44" t="s">
-        <v>918</v>
+        <v>1208</v>
       </c>
       <c r="B77" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="C77" s="19" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>1215</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="20"/>
     </row>
     <row r="78">
       <c r="A78" s="39" t="s">
-        <v>918</v>
+        <v>1208</v>
       </c>
       <c r="B78" s="41" t="s">
-        <v>925</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>1215</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="14"/>
     </row>
     <row r="79">
       <c r="A79" s="44" t="s">
-        <v>918</v>
+        <v>1208</v>
       </c>
       <c r="B79" s="46" t="s">
-        <v>889</v>
-      </c>
-      <c r="C79" s="19" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>1217</v>
-      </c>
+        <v>1181</v>
+      </c>
+      <c r="C79" s="19"/>
+      <c r="D79" s="20"/>
     </row>
     <row r="80">
       <c r="A80" s="39" t="s">
         <v>918</v>
       </c>
       <c r="B80" s="41" t="s">
-        <v>263</v>
+        <v>592</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>1218</v>
+        <v>1211</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>1219</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="81">
@@ -51586,70 +51570,80 @@
         <v>918</v>
       </c>
       <c r="B81" s="46" t="s">
-        <v>246</v>
+        <v>897</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D81" s="21"/>
+        <v>1212</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>1213</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="39" t="s">
         <v>918</v>
       </c>
       <c r="B82" s="41" t="s">
-        <v>924</v>
+        <v>269</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D82" s="22"/>
+        <v>1214</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>1215</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="44" t="s">
         <v>918</v>
       </c>
       <c r="B83" s="46" t="s">
-        <v>900</v>
+        <v>925</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D83" s="21"/>
+        <v>1216</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>1215</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="39" t="s">
         <v>918</v>
       </c>
       <c r="B84" s="41" t="s">
-        <v>1018</v>
+        <v>889</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D84" s="22"/>
+        <v>1185</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>1217</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="44" t="s">
         <v>918</v>
       </c>
       <c r="B85" s="46" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D85" s="21"/>
+        <v>1218</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="39" t="s">
         <v>918</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>576</v>
+        <v>246</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D86" s="22"/>
     </row>
@@ -51658,542 +51652,610 @@
         <v>918</v>
       </c>
       <c r="B87" s="46" t="s">
-        <v>247</v>
+        <v>924</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D87" s="21"/>
     </row>
     <row r="88">
       <c r="A88" s="39" t="s">
-        <v>1003</v>
+        <v>918</v>
       </c>
       <c r="B88" s="41" t="s">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>1225</v>
-      </c>
+        <v>1156</v>
+      </c>
+      <c r="D88" s="22"/>
     </row>
     <row r="89">
       <c r="A89" s="44" t="s">
-        <v>1003</v>
+        <v>918</v>
       </c>
       <c r="B89" s="46" t="s">
-        <v>892</v>
+        <v>1018</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>1227</v>
-      </c>
+        <v>1193</v>
+      </c>
+      <c r="D89" s="21"/>
     </row>
     <row r="90">
       <c r="A90" s="39" t="s">
-        <v>1003</v>
+        <v>918</v>
       </c>
       <c r="B90" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>1215</v>
-      </c>
+        <v>1195</v>
+      </c>
+      <c r="D90" s="22"/>
     </row>
     <row r="91">
       <c r="A91" s="44" t="s">
-        <v>1003</v>
+        <v>918</v>
       </c>
       <c r="B91" s="46" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>1230</v>
-      </c>
+        <v>1222</v>
+      </c>
+      <c r="D91" s="21"/>
     </row>
     <row r="92">
       <c r="A92" s="39" t="s">
-        <v>1003</v>
+        <v>918</v>
       </c>
       <c r="B92" s="41" t="s">
-        <v>897</v>
+        <v>247</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>1232</v>
-      </c>
+        <v>1223</v>
+      </c>
+      <c r="D92" s="22"/>
     </row>
     <row r="93">
       <c r="A93" s="44" t="s">
-        <v>1003</v>
+        <v>939</v>
       </c>
       <c r="B93" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>1234</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C93" s="19"/>
+      <c r="D93" s="21"/>
     </row>
     <row r="94">
       <c r="A94" s="39" t="s">
-        <v>1003</v>
+        <v>939</v>
       </c>
       <c r="B94" s="41" t="s">
-        <v>270</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>1235</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>1236</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="22"/>
     </row>
     <row r="95">
       <c r="A95" s="44" t="s">
-        <v>1003</v>
+        <v>939</v>
       </c>
       <c r="B95" s="46" t="s">
-        <v>924</v>
-      </c>
-      <c r="C95" s="19" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>1238</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C95" s="19"/>
+      <c r="D95" s="21"/>
     </row>
     <row r="96">
       <c r="A96" s="39" t="s">
-        <v>1003</v>
+        <v>939</v>
       </c>
       <c r="B96" s="41" t="s">
-        <v>900</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>1156</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C96" s="13"/>
       <c r="D96" s="22"/>
     </row>
     <row r="97">
       <c r="A97" s="44" t="s">
-        <v>1003</v>
+        <v>939</v>
       </c>
       <c r="B97" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D97" s="21"/>
+        <v>164</v>
+      </c>
+      <c r="C97" s="19"/>
+      <c r="D97" s="21" t="s">
+        <v>1224</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="39" t="s">
-        <v>1003</v>
+        <v>939</v>
       </c>
       <c r="B98" s="41" t="s">
-        <v>899</v>
+        <v>278</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>1194</v>
+        <v>1210</v>
       </c>
       <c r="D98" s="22"/>
     </row>
     <row r="99">
       <c r="A99" s="44" t="s">
-        <v>1003</v>
+        <v>939</v>
       </c>
       <c r="B99" s="46" t="s">
-        <v>1018</v>
+        <v>157</v>
       </c>
       <c r="C99" s="19" t="s">
-        <v>1193</v>
+        <v>48</v>
       </c>
       <c r="D99" s="21"/>
     </row>
     <row r="100">
       <c r="A100" s="39" t="s">
-        <v>1020</v>
+        <v>939</v>
       </c>
       <c r="B100" s="41" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D100" s="14"/>
+        <v>419</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="22"/>
     </row>
     <row r="101">
       <c r="A101" s="44" t="s">
-        <v>1020</v>
+        <v>962</v>
       </c>
       <c r="B101" s="46" t="s">
-        <v>164</v>
+        <v>275</v>
       </c>
       <c r="C101" s="19" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D101" s="64"/>
+        <v>1225</v>
+      </c>
+      <c r="D101" s="21"/>
     </row>
     <row r="102">
       <c r="A102" s="39" t="s">
-        <v>1020</v>
+        <v>962</v>
       </c>
       <c r="B102" s="41" t="s">
-        <v>275</v>
+        <v>164</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D102" s="65"/>
+        <v>1226</v>
+      </c>
+      <c r="D102" s="22"/>
     </row>
     <row r="103">
       <c r="A103" s="44" t="s">
-        <v>1020</v>
+        <v>962</v>
       </c>
       <c r="B103" s="46" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D103" s="20"/>
+        <v>160</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="21"/>
     </row>
     <row r="104">
       <c r="A104" s="39" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="B104" s="41" t="s">
-        <v>279</v>
+        <v>889</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D104" s="65"/>
+        <v>1227</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>1228</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="44" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="B105" s="46" t="s">
-        <v>1023</v>
+        <v>892</v>
       </c>
       <c r="C105" s="19" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D105" s="64"/>
+        <v>1229</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>1230</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="39" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="B106" s="41" t="s">
-        <v>1022</v>
+        <v>269</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D106" s="65"/>
+        <v>1231</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>1215</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="44" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="B107" s="46" t="s">
-        <v>1026</v>
+        <v>592</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D107" s="64"/>
+        <v>1232</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>1233</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="39" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="B108" s="41" t="s">
-        <v>1034</v>
+        <v>897</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D108" s="65"/>
+        <v>1234</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>1235</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="44" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="B109" s="46" t="s">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D109" s="21"/>
+        <v>1236</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>1237</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="39" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="B110" s="41" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D110" s="22"/>
+        <v>1238</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>1239</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="44" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="B111" s="46" t="s">
-        <v>419</v>
+        <v>924</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D111" s="21"/>
+        <v>1240</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>1241</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="39" t="s">
-        <v>1020</v>
+        <v>1003</v>
       </c>
       <c r="B112" s="41" t="s">
-        <v>162</v>
+        <v>900</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>1248</v>
+        <v>1156</v>
       </c>
       <c r="D112" s="22"/>
     </row>
     <row r="113">
       <c r="A113" s="44" t="s">
-        <v>962</v>
+        <v>1003</v>
       </c>
       <c r="B113" s="46" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>1249</v>
+        <v>1195</v>
       </c>
       <c r="D113" s="21"/>
     </row>
     <row r="114">
       <c r="A114" s="39" t="s">
-        <v>962</v>
+        <v>1003</v>
       </c>
       <c r="B114" s="41" t="s">
-        <v>164</v>
+        <v>899</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>1250</v>
+        <v>1194</v>
       </c>
       <c r="D114" s="22"/>
     </row>
     <row r="115">
       <c r="A115" s="44" t="s">
-        <v>962</v>
+        <v>1003</v>
       </c>
       <c r="B115" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C115" s="19"/>
+        <v>1018</v>
+      </c>
+      <c r="C115" s="19" t="s">
+        <v>1193</v>
+      </c>
       <c r="D115" s="21"/>
     </row>
     <row r="116">
       <c r="A116" s="39" t="s">
-        <v>1134</v>
+        <v>1020</v>
       </c>
       <c r="B116" s="41" t="s">
-        <v>419</v>
+        <v>1124</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D116" s="22"/>
+        <v>1156</v>
+      </c>
+      <c r="D116" s="14"/>
     </row>
     <row r="117">
       <c r="A117" s="44" t="s">
-        <v>1134</v>
+        <v>1020</v>
       </c>
       <c r="B117" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="C117" s="19"/>
-      <c r="D117" s="21"/>
+        <v>164</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D117" s="65"/>
     </row>
     <row r="118">
       <c r="A118" s="39" t="s">
-        <v>1134</v>
+        <v>1020</v>
       </c>
       <c r="B118" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="C118" s="13"/>
-      <c r="D118" s="22"/>
+        <v>275</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D118" s="64"/>
     </row>
     <row r="119">
       <c r="A119" s="44" t="s">
-        <v>1134</v>
+        <v>1020</v>
       </c>
       <c r="B119" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="C119" s="19"/>
-      <c r="D119" s="21"/>
+        <v>1124</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D119" s="20"/>
     </row>
     <row r="120">
       <c r="A120" s="39" t="s">
-        <v>1134</v>
+        <v>1020</v>
       </c>
       <c r="B120" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>1156</v>
-      </c>
-      <c r="D120" s="22"/>
+        <v>1244</v>
+      </c>
+      <c r="D120" s="64"/>
     </row>
     <row r="121">
       <c r="A121" s="44" t="s">
-        <v>939</v>
+        <v>1020</v>
       </c>
       <c r="B121" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="C121" s="19"/>
-      <c r="D121" s="21"/>
+        <v>1023</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D121" s="65"/>
     </row>
     <row r="122">
       <c r="A122" s="39" t="s">
-        <v>939</v>
+        <v>1020</v>
       </c>
       <c r="B122" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="C122" s="13"/>
-      <c r="D122" s="22"/>
+        <v>1022</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D122" s="64"/>
     </row>
     <row r="123">
       <c r="A123" s="44" t="s">
-        <v>939</v>
+        <v>1020</v>
       </c>
       <c r="B123" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="C123" s="19"/>
-      <c r="D123" s="21"/>
+        <v>1026</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D123" s="65"/>
     </row>
     <row r="124">
       <c r="A124" s="39" t="s">
-        <v>939</v>
+        <v>1020</v>
       </c>
       <c r="B124" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="C124" s="13"/>
-      <c r="D124" s="22"/>
+        <v>1034</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D124" s="64"/>
     </row>
     <row r="125">
       <c r="A125" s="44" t="s">
-        <v>939</v>
+        <v>1020</v>
       </c>
       <c r="B125" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="C125" s="19"/>
-      <c r="D125" s="21" t="s">
-        <v>1251</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D125" s="21"/>
     </row>
     <row r="126">
       <c r="A126" s="39" t="s">
-        <v>939</v>
+        <v>1020</v>
       </c>
       <c r="B126" s="41" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>1210</v>
+        <v>1248</v>
       </c>
       <c r="D126" s="22"/>
     </row>
     <row r="127">
       <c r="A127" s="44" t="s">
-        <v>939</v>
+        <v>1020</v>
       </c>
       <c r="B127" s="46" t="s">
-        <v>157</v>
+        <v>419</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>48</v>
+        <v>1250</v>
       </c>
       <c r="D127" s="21"/>
     </row>
     <row r="128">
-      <c r="A128" s="66" t="s">
-        <v>939</v>
-      </c>
-      <c r="B128" s="67" t="s">
+      <c r="A128" s="39" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B128" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D128" s="22"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="B129" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C129" s="19"/>
+      <c r="D129" s="21"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="B130" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" s="13"/>
+      <c r="D130" s="22"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="B131" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="C131" s="19"/>
+      <c r="D131" s="21"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="B132" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="22"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="B133" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" s="19"/>
+      <c r="D133" s="21"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="B134" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="C128" s="27"/>
-      <c r="D128" s="37"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="68"/>
-      <c r="B129" s="68"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="68"/>
-      <c r="B130" s="68"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="68"/>
-      <c r="B131" s="68"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="68"/>
-      <c r="B132" s="68"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="68"/>
-      <c r="B133" s="68"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="68"/>
-      <c r="B134" s="68"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="22"/>
     </row>
     <row r="135">
-      <c r="A135" s="68"/>
-      <c r="B135" s="68"/>
+      <c r="A135" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="B135" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="C135" s="19"/>
+      <c r="D135" s="21"/>
     </row>
     <row r="136">
-      <c r="A136" s="68"/>
-      <c r="B136" s="68"/>
+      <c r="A136" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="B136" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="C136" s="13"/>
+      <c r="D136" s="22"/>
     </row>
     <row r="137">
-      <c r="A137" s="68"/>
-      <c r="B137" s="68"/>
+      <c r="A137" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="B137" s="46" t="s">
+        <v>456</v>
+      </c>
+      <c r="C137" s="19"/>
+      <c r="D137" s="21"/>
     </row>
     <row r="138">
-      <c r="A138" s="68"/>
-      <c r="B138" s="68"/>
+      <c r="A138" s="66" t="s">
+        <v>415</v>
+      </c>
+      <c r="B138" s="67" t="s">
+        <v>281</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D138" s="37"/>
     </row>
     <row r="139">
       <c r="A139" s="68"/>
@@ -55648,10 +55710,10 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B128">
+    <dataValidation type="list" allowBlank="1" sqref="B2:B138">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B129:B1001">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B139:B1001">
       <formula1>Leden!$A$2:$A$1001</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A1000">
